--- a/Database/DanhSachChucNang.xlsx
+++ b/Database/DanhSachChucNang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr.F\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr.F\Documents\GitHub\1742012-1740280-LTUDJava-QLPhongMachTu\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Thêm danh sách bệnh nhân</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Xóa thuốc (ẩn)</t>
+  </si>
+  <si>
+    <t>Duy</t>
+  </si>
+  <si>
+    <t>Uyên</t>
   </si>
 </sst>
 </file>
@@ -448,7 +454,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,6 +463,12 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>1742012</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -579,6 +591,12 @@
       <c r="A16" t="s">
         <v>12</v>
       </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>1742080</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
